--- a/Data-extracted/final/binding_energies/analysis/FeN4.xlsx
+++ b/Data-extracted/final/binding_energies/analysis/FeN4.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperunion-my.sharepoint.com/personal/andrew_kim_cooper_edu/Documents/Masters/Data_management/Data-extracted/final/binding_energies/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{E94B275E-0929-442D-A4A5-0C04E87FA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3129FC4A-664C-4663-B98C-DFF3E7422741}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{E94B275E-0929-442D-A4A5-0C04E87FA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{572EA753-5D5D-4B91-AA44-8BFF6D5E4EFD}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EDA7B634-E513-433B-9C14-5A6A56187A53}"/>
+    <workbookView xWindow="-15855" yWindow="-6525" windowWidth="15960" windowHeight="12345" xr2:uid="{EDA7B634-E513-433B-9C14-5A6A56187A53}"/>
   </bookViews>
   <sheets>
     <sheet name="FeN4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t>NaPS</t>
   </si>
@@ -140,30 +153,6 @@
   </si>
   <si>
     <t>graphene</t>
-  </si>
-  <si>
-    <t>0.012915338153220546</t>
-  </si>
-  <si>
-    <t>0.020067136790544282</t>
-  </si>
-  <si>
-    <t>0.025063792944820307</t>
-  </si>
-  <si>
-    <t>0.027258368959451218</t>
-  </si>
-  <si>
-    <t>0.012560926863557142</t>
-  </si>
-  <si>
-    <t>0.042525020226548804</t>
-  </si>
-  <si>
-    <t>0.016401411215611006</t>
-  </si>
-  <si>
-    <t>0.016747810108086014</t>
   </si>
   <si>
     <t>Difference (Hartree)</t>
@@ -1033,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA21A74-FDAE-41FB-9591-5D64E9748D05}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,8 +1111,8 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
+      <c r="I3" s="1">
+        <v>1.2915338153220501E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,6 +1172,10 @@
       <c r="I5">
         <v>-5.3753810000000003E-3</v>
       </c>
+      <c r="J5">
+        <f>D5*2625.5</f>
+        <v>-7.2333732730000007</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1209,8 +1202,8 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
+      <c r="I6" s="1">
+        <v>2.0067136790544199E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,8 +1231,8 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
+      <c r="I7" s="1">
+        <v>2.50637929448203E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1296,8 +1289,8 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>43</v>
+      <c r="I9" s="1">
+        <v>2.7258368959451201E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,8 +1350,8 @@
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
+      <c r="I11" s="1">
+        <v>1.2560926863557101E-2</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -1389,8 +1382,8 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
+      <c r="I12" s="1">
+        <v>4.2525020226548797E-2</v>
       </c>
       <c r="J12">
         <v>1.3580000000000001</v>
@@ -1421,8 +1414,8 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
+      <c r="I13" s="1">
+        <v>1.6401411215610999E-2</v>
       </c>
       <c r="J13">
         <v>1.0720000000000001</v>
@@ -1485,8 +1478,8 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>47</v>
+      <c r="I15" s="1">
+        <v>1.6747810108086E-2</v>
       </c>
       <c r="J15">
         <v>1.3520000000000001</v>
@@ -2178,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
         <v>28</v>
